--- a/new_qualys/csv_write_dict_16.xlsx
+++ b/new_qualys/csv_write_dict_16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="525">
   <si>
     <t>UNIQUE_ID</t>
   </si>
@@ -154,7 +154,7 @@
     <t>Security Misconfiguration</t>
   </si>
   <si>
-    <t>Insufficient Logging &amp; Monitoring</t>
+    <t>APPLICATION MISCONFIGURATION</t>
   </si>
   <si>
     <t>CWE-451</t>
@@ -280,6 +280,9 @@
     <t>Sensitive Data Exposure</t>
   </si>
   <si>
+    <t>INSUFFICIENT TRANSPORT LAYER PROTECTION</t>
+  </si>
+  <si>
     <t>CWE-614</t>
   </si>
   <si>
@@ -740,7 +743,7 @@
     <t>Broken Access Control</t>
   </si>
   <si>
-    <t>Insufficient Logging &amp; Monitoring ,Insufficient Logging &amp; Monitoring ,Insufficient Logging &amp; Monitoring</t>
+    <t>APPLICATION MISCONFIGURATION ,IMPROPER FILESYSTEM PERMISSIONS ,DIRECTORY INDEXING</t>
   </si>
   <si>
     <t>CWE-22</t>
@@ -3253,22 +3256,22 @@
         <v>85</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA7" t="s">
         <v>51</v>
@@ -3280,21 +3283,21 @@
         <v>51</v>
       </c>
       <c r="AD7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -3309,13 +3312,13 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
         <v>35</v>
@@ -3342,22 +3345,22 @@
         <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA8" t="s">
         <v>51</v>
@@ -3369,21 +3372,21 @@
         <v>51</v>
       </c>
       <c r="AD8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -3395,13 +3398,13 @@
         <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
         <v>83</v>
@@ -3431,22 +3434,22 @@
         <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA9" t="s">
         <v>51</v>
@@ -3458,21 +3461,21 @@
         <v>51</v>
       </c>
       <c r="AD9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -3484,7 +3487,7 @@
         <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
         <v>69</v>
@@ -3493,7 +3496,7 @@
         <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
@@ -3520,22 +3523,22 @@
         <v>85</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s">
         <v>51</v>
@@ -3547,21 +3550,21 @@
         <v>51</v>
       </c>
       <c r="AD10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -3573,7 +3576,7 @@
         <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
@@ -3609,22 +3612,22 @@
         <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA11" t="s">
         <v>51</v>
@@ -3636,21 +3639,21 @@
         <v>51</v>
       </c>
       <c r="AD11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
@@ -3662,13 +3665,13 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
         <v>38</v>
@@ -3698,22 +3701,22 @@
         <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA12" t="s">
         <v>51</v>
@@ -3725,21 +3728,21 @@
         <v>51</v>
       </c>
       <c r="AD12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -3787,22 +3790,22 @@
         <v>85</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA13" t="s">
         <v>51</v>
@@ -3814,21 +3817,21 @@
         <v>51</v>
       </c>
       <c r="AD13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
@@ -3876,22 +3879,22 @@
         <v>85</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA14" t="s">
         <v>51</v>
@@ -3903,21 +3906,21 @@
         <v>51</v>
       </c>
       <c r="AD14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -3965,22 +3968,22 @@
         <v>85</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA15" t="s">
         <v>51</v>
@@ -3992,21 +3995,21 @@
         <v>51</v>
       </c>
       <c r="AD15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
@@ -4018,13 +4021,13 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
         <v>38</v>
@@ -4054,22 +4057,22 @@
         <v>85</v>
       </c>
       <c r="T16" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA16" t="s">
         <v>51</v>
@@ -4081,21 +4084,21 @@
         <v>51</v>
       </c>
       <c r="AD16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
@@ -4107,16 +4110,16 @@
         <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
@@ -4143,22 +4146,22 @@
         <v>85</v>
       </c>
       <c r="T17" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA17" t="s">
         <v>51</v>
@@ -4170,21 +4173,21 @@
         <v>51</v>
       </c>
       <c r="AD17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
         <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
@@ -4196,13 +4199,13 @@
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s">
         <v>38</v>
@@ -4232,22 +4235,22 @@
         <v>85</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA18" t="s">
         <v>51</v>
@@ -4259,15 +4262,15 @@
         <v>51</v>
       </c>
       <c r="AD18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
         <v>81</v>
@@ -4294,7 +4297,7 @@
         <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s">
         <v>35</v>
@@ -4321,22 +4324,22 @@
         <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA19" t="s">
         <v>51</v>
@@ -4348,21 +4351,21 @@
         <v>51</v>
       </c>
       <c r="AD19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
@@ -4374,13 +4377,13 @@
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" t="s">
         <v>38</v>
@@ -4410,22 +4413,22 @@
         <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA20" t="s">
         <v>51</v>
@@ -4437,21 +4440,21 @@
         <v>51</v>
       </c>
       <c r="AD20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>
@@ -4463,13 +4466,13 @@
         <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s">
         <v>83</v>
@@ -4499,22 +4502,22 @@
         <v>85</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA21" t="s">
         <v>51</v>
@@ -4526,21 +4529,21 @@
         <v>51</v>
       </c>
       <c r="AD21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
@@ -4552,16 +4555,16 @@
         <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -4588,22 +4591,22 @@
         <v>85</v>
       </c>
       <c r="T22" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA22" t="s">
         <v>51</v>
@@ -4615,21 +4618,21 @@
         <v>51</v>
       </c>
       <c r="AD22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -4641,13 +4644,13 @@
         <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s">
         <v>38</v>
@@ -4677,22 +4680,22 @@
         <v>85</v>
       </c>
       <c r="T23" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA23" t="s">
         <v>51</v>
@@ -4704,21 +4707,21 @@
         <v>51</v>
       </c>
       <c r="AD23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
@@ -4766,22 +4769,22 @@
         <v>85</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA24" t="s">
         <v>51</v>
@@ -4793,21 +4796,21 @@
         <v>51</v>
       </c>
       <c r="AD24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
@@ -4819,13 +4822,13 @@
         <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
         <v>83</v>
@@ -4855,22 +4858,22 @@
         <v>85</v>
       </c>
       <c r="T25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA25" t="s">
         <v>51</v>
@@ -4882,21 +4885,21 @@
         <v>51</v>
       </c>
       <c r="AD25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
@@ -4908,13 +4911,13 @@
         <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
         <v>38</v>
@@ -4944,22 +4947,22 @@
         <v>85</v>
       </c>
       <c r="T26" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA26" t="s">
         <v>51</v>
@@ -4971,21 +4974,21 @@
         <v>51</v>
       </c>
       <c r="AD26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
@@ -5033,22 +5036,22 @@
         <v>85</v>
       </c>
       <c r="T27" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA27" t="s">
         <v>51</v>
@@ -5060,21 +5063,21 @@
         <v>51</v>
       </c>
       <c r="AD27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
         <v>34</v>
@@ -5095,7 +5098,7 @@
         <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s">
         <v>35</v>
@@ -5122,22 +5125,22 @@
         <v>85</v>
       </c>
       <c r="T28" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA28" t="s">
         <v>51</v>
@@ -5149,21 +5152,21 @@
         <v>51</v>
       </c>
       <c r="AD28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
         <v>34</v>
@@ -5175,16 +5178,16 @@
         <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
@@ -5211,22 +5214,22 @@
         <v>85</v>
       </c>
       <c r="T29" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA29" t="s">
         <v>51</v>
@@ -5238,21 +5241,21 @@
         <v>51</v>
       </c>
       <c r="AD29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
         <v>81</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
@@ -5264,13 +5267,13 @@
         <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30" t="s">
         <v>38</v>
@@ -5300,22 +5303,22 @@
         <v>85</v>
       </c>
       <c r="T30" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA30" t="s">
         <v>51</v>
@@ -5327,21 +5330,21 @@
         <v>51</v>
       </c>
       <c r="AD30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
@@ -5389,22 +5392,22 @@
         <v>85</v>
       </c>
       <c r="T31" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA31" t="s">
         <v>51</v>
@@ -5416,21 +5419,21 @@
         <v>51</v>
       </c>
       <c r="AD31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -5442,7 +5445,7 @@
         <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I32" t="s">
         <v>69</v>
@@ -5478,22 +5481,22 @@
         <v>85</v>
       </c>
       <c r="T32" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA32" t="s">
         <v>51</v>
@@ -5505,21 +5508,21 @@
         <v>51</v>
       </c>
       <c r="AD32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E33" t="s">
         <v>34</v>
@@ -5531,13 +5534,13 @@
         <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
@@ -5567,22 +5570,22 @@
         <v>85</v>
       </c>
       <c r="T33" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA33" t="s">
         <v>51</v>
@@ -5594,15 +5597,15 @@
         <v>51</v>
       </c>
       <c r="AD33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
         <v>81</v>
@@ -5620,13 +5623,13 @@
         <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K34" t="s">
         <v>39</v>
@@ -5656,22 +5659,22 @@
         <v>85</v>
       </c>
       <c r="T34" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA34" t="s">
         <v>51</v>
@@ -5683,15 +5686,15 @@
         <v>51</v>
       </c>
       <c r="AD34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
         <v>81</v>
@@ -5712,10 +5715,10 @@
         <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s">
         <v>83</v>
@@ -5745,22 +5748,22 @@
         <v>85</v>
       </c>
       <c r="T35" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA35" t="s">
         <v>51</v>
@@ -5772,21 +5775,21 @@
         <v>51</v>
       </c>
       <c r="AD35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
         <v>81</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
@@ -5834,22 +5837,22 @@
         <v>85</v>
       </c>
       <c r="T36" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA36" t="s">
         <v>51</v>
@@ -5861,21 +5864,21 @@
         <v>51</v>
       </c>
       <c r="AD36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E37" t="s">
         <v>34</v>
@@ -5884,10 +5887,10 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I37" t="s">
         <v>69</v>
@@ -5908,40 +5911,40 @@
         <v>40</v>
       </c>
       <c r="O37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z37" t="s">
         <v>51</v>
       </c>
       <c r="AA37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB37" t="s">
         <v>51</v>
@@ -5950,21 +5953,21 @@
         <v>51</v>
       </c>
       <c r="AD37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
@@ -5997,40 +6000,40 @@
         <v>40</v>
       </c>
       <c r="O38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z38" t="s">
         <v>51</v>
       </c>
       <c r="AA38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB38" t="s">
         <v>51</v>
@@ -6039,21 +6042,21 @@
         <v>51</v>
       </c>
       <c r="AD38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E39" t="s">
         <v>34</v>
@@ -6086,40 +6089,40 @@
         <v>40</v>
       </c>
       <c r="O39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z39" t="s">
         <v>51</v>
       </c>
       <c r="AA39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB39" t="s">
         <v>51</v>
@@ -6128,21 +6131,21 @@
         <v>51</v>
       </c>
       <c r="AD39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
@@ -6175,40 +6178,40 @@
         <v>40</v>
       </c>
       <c r="O40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z40" t="s">
         <v>51</v>
       </c>
       <c r="AA40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB40" t="s">
         <v>51</v>
@@ -6217,21 +6220,21 @@
         <v>51</v>
       </c>
       <c r="AD40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E41" t="s">
         <v>34</v>
@@ -6243,13 +6246,13 @@
         <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s">
         <v>38</v>
@@ -6264,40 +6267,40 @@
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z41" t="s">
         <v>51</v>
       </c>
       <c r="AA41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB41" t="s">
         <v>51</v>
@@ -6306,21 +6309,21 @@
         <v>51</v>
       </c>
       <c r="AD41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
@@ -6329,10 +6332,10 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I42" t="s">
         <v>69</v>
@@ -6353,40 +6356,40 @@
         <v>40</v>
       </c>
       <c r="O42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z42" t="s">
         <v>51</v>
       </c>
       <c r="AA42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB42" t="s">
         <v>51</v>
@@ -6395,21 +6398,21 @@
         <v>51</v>
       </c>
       <c r="AD42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E43" t="s">
         <v>34</v>
@@ -6442,40 +6445,40 @@
         <v>40</v>
       </c>
       <c r="O43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z43" t="s">
         <v>51</v>
       </c>
       <c r="AA43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB43" t="s">
         <v>51</v>
@@ -6484,21 +6487,21 @@
         <v>51</v>
       </c>
       <c r="AD43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
@@ -6531,40 +6534,40 @@
         <v>40</v>
       </c>
       <c r="O44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z44" t="s">
         <v>51</v>
       </c>
       <c r="AA44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB44" t="s">
         <v>51</v>
@@ -6573,21 +6576,21 @@
         <v>51</v>
       </c>
       <c r="AD44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E45" t="s">
         <v>34</v>
@@ -6599,13 +6602,13 @@
         <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K45" t="s">
         <v>38</v>
@@ -6620,40 +6623,40 @@
         <v>40</v>
       </c>
       <c r="O45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z45" t="s">
         <v>51</v>
       </c>
       <c r="AA45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB45" t="s">
         <v>51</v>
@@ -6662,21 +6665,21 @@
         <v>51</v>
       </c>
       <c r="AD45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E46" t="s">
         <v>34</v>
@@ -6688,13 +6691,13 @@
         <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
         <v>38</v>
@@ -6709,40 +6712,40 @@
         <v>40</v>
       </c>
       <c r="O46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z46" t="s">
         <v>51</v>
       </c>
       <c r="AA46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB46" t="s">
         <v>51</v>
@@ -6751,21 +6754,21 @@
         <v>51</v>
       </c>
       <c r="AD46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
@@ -6774,10 +6777,10 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I47" t="s">
         <v>69</v>
@@ -6798,40 +6801,40 @@
         <v>40</v>
       </c>
       <c r="O47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S47" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V47" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z47" t="s">
         <v>51</v>
       </c>
       <c r="AA47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB47" t="s">
         <v>51</v>
@@ -6840,21 +6843,21 @@
         <v>51</v>
       </c>
       <c r="AD47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>
@@ -6869,13 +6872,13 @@
         <v>37</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L48" t="s">
         <v>35</v>
@@ -6887,40 +6890,40 @@
         <v>40</v>
       </c>
       <c r="O48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z48" t="s">
         <v>51</v>
       </c>
       <c r="AA48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB48" t="s">
         <v>51</v>
@@ -6929,21 +6932,21 @@
         <v>51</v>
       </c>
       <c r="AD48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E49" t="s">
         <v>34</v>
@@ -6952,16 +6955,16 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K49" t="s">
         <v>83</v>
@@ -6976,40 +6979,40 @@
         <v>40</v>
       </c>
       <c r="O49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z49" t="s">
         <v>51</v>
       </c>
       <c r="AA49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB49" t="s">
         <v>51</v>
@@ -7018,21 +7021,21 @@
         <v>51</v>
       </c>
       <c r="AD49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E50" t="s">
         <v>34</v>
@@ -7041,10 +7044,10 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I50" t="s">
         <v>69</v>
@@ -7065,40 +7068,40 @@
         <v>40</v>
       </c>
       <c r="O50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z50" t="s">
         <v>51</v>
       </c>
       <c r="AA50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB50" t="s">
         <v>51</v>
@@ -7107,21 +7110,21 @@
         <v>51</v>
       </c>
       <c r="AD50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E51" t="s">
         <v>34</v>
@@ -7154,40 +7157,40 @@
         <v>40</v>
       </c>
       <c r="O51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z51" t="s">
         <v>51</v>
       </c>
       <c r="AA51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB51" t="s">
         <v>51</v>
@@ -7196,21 +7199,21 @@
         <v>51</v>
       </c>
       <c r="AD51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E52" t="s">
         <v>34</v>
@@ -7219,10 +7222,10 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I52" t="s">
         <v>69</v>
@@ -7243,40 +7246,40 @@
         <v>40</v>
       </c>
       <c r="O52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z52" t="s">
         <v>51</v>
       </c>
       <c r="AA52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB52" t="s">
         <v>51</v>
@@ -7285,21 +7288,21 @@
         <v>51</v>
       </c>
       <c r="AD52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E53" t="s">
         <v>34</v>
@@ -7332,40 +7335,40 @@
         <v>40</v>
       </c>
       <c r="O53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z53" t="s">
         <v>51</v>
       </c>
       <c r="AA53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB53" t="s">
         <v>51</v>
@@ -7374,21 +7377,21 @@
         <v>51</v>
       </c>
       <c r="AD53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E54" t="s">
         <v>34</v>
@@ -7397,10 +7400,10 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I54" t="s">
         <v>69</v>
@@ -7421,40 +7424,40 @@
         <v>40</v>
       </c>
       <c r="O54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z54" t="s">
         <v>51</v>
       </c>
       <c r="AA54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB54" t="s">
         <v>51</v>
@@ -7463,21 +7466,21 @@
         <v>51</v>
       </c>
       <c r="AD54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E55" t="s">
         <v>34</v>
@@ -7486,10 +7489,10 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I55" t="s">
         <v>69</v>
@@ -7510,40 +7513,40 @@
         <v>40</v>
       </c>
       <c r="O55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z55" t="s">
         <v>51</v>
       </c>
       <c r="AA55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB55" t="s">
         <v>51</v>
@@ -7552,21 +7555,21 @@
         <v>51</v>
       </c>
       <c r="AD55" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
         <v>34</v>
@@ -7575,10 +7578,10 @@
         <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I56" t="s">
         <v>69</v>
@@ -7599,40 +7602,40 @@
         <v>40</v>
       </c>
       <c r="O56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z56" t="s">
         <v>51</v>
       </c>
       <c r="AA56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB56" t="s">
         <v>51</v>
@@ -7641,21 +7644,21 @@
         <v>51</v>
       </c>
       <c r="AD56" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
         <v>34</v>
@@ -7667,13 +7670,13 @@
         <v>36</v>
       </c>
       <c r="H57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K57" t="s">
         <v>38</v>
@@ -7694,7 +7697,7 @@
         <v>51</v>
       </c>
       <c r="Q57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R57" t="s">
         <v>44</v>
@@ -7703,22 +7706,22 @@
         <v>85</v>
       </c>
       <c r="T57" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA57" t="s">
         <v>51</v>
@@ -7730,21 +7733,21 @@
         <v>51</v>
       </c>
       <c r="AD57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
@@ -7756,13 +7759,13 @@
         <v>68</v>
       </c>
       <c r="H58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s">
         <v>83</v>
@@ -7783,7 +7786,7 @@
         <v>51</v>
       </c>
       <c r="Q58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R58" t="s">
         <v>44</v>
@@ -7792,22 +7795,22 @@
         <v>85</v>
       </c>
       <c r="T58" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X58" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA58" t="s">
         <v>51</v>
@@ -7819,21 +7822,21 @@
         <v>51</v>
       </c>
       <c r="AD58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
         <v>34</v>
@@ -7872,7 +7875,7 @@
         <v>51</v>
       </c>
       <c r="Q59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R59" t="s">
         <v>44</v>
@@ -7881,22 +7884,22 @@
         <v>85</v>
       </c>
       <c r="T59" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W59" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X59" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA59" t="s">
         <v>51</v>
@@ -7908,18 +7911,18 @@
         <v>51</v>
       </c>
       <c r="AD59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>63</v>
@@ -7943,7 +7946,7 @@
         <v>69</v>
       </c>
       <c r="K60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L60" t="s">
         <v>35</v>
@@ -7961,7 +7964,7 @@
         <v>51</v>
       </c>
       <c r="Q60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R60" t="s">
         <v>44</v>
@@ -7970,22 +7973,22 @@
         <v>85</v>
       </c>
       <c r="T60" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X60" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA60" t="s">
         <v>51</v>
@@ -7997,21 +8000,21 @@
         <v>51</v>
       </c>
       <c r="AD60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E61" t="s">
         <v>34</v>
@@ -8023,13 +8026,13 @@
         <v>36</v>
       </c>
       <c r="H61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K61" t="s">
         <v>38</v>
@@ -8050,7 +8053,7 @@
         <v>51</v>
       </c>
       <c r="Q61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R61" t="s">
         <v>44</v>
@@ -8059,22 +8062,22 @@
         <v>85</v>
       </c>
       <c r="T61" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA61" t="s">
         <v>51</v>
@@ -8086,21 +8089,21 @@
         <v>51</v>
       </c>
       <c r="AD61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
@@ -8112,7 +8115,7 @@
         <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I62" t="s">
         <v>69</v>
@@ -8139,7 +8142,7 @@
         <v>51</v>
       </c>
       <c r="Q62" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R62" t="s">
         <v>44</v>
@@ -8148,22 +8151,22 @@
         <v>85</v>
       </c>
       <c r="T62" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U62" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W62" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA62" t="s">
         <v>51</v>
@@ -8175,18 +8178,18 @@
         <v>51</v>
       </c>
       <c r="AD62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C63" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>33</v>
@@ -8204,10 +8207,10 @@
         <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K63" t="s">
         <v>83</v>
@@ -8228,7 +8231,7 @@
         <v>51</v>
       </c>
       <c r="Q63" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R63" t="s">
         <v>44</v>
@@ -8237,22 +8240,22 @@
         <v>85</v>
       </c>
       <c r="T63" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V63" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W63" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA63" t="s">
         <v>51</v>
@@ -8264,21 +8267,21 @@
         <v>51</v>
       </c>
       <c r="AD63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C64" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
@@ -8317,7 +8320,7 @@
         <v>51</v>
       </c>
       <c r="Q64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R64" t="s">
         <v>44</v>
@@ -8326,22 +8329,22 @@
         <v>85</v>
       </c>
       <c r="T64" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W64" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X64" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA64" t="s">
         <v>51</v>
@@ -8353,21 +8356,21 @@
         <v>51</v>
       </c>
       <c r="AD64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
@@ -8379,16 +8382,16 @@
         <v>68</v>
       </c>
       <c r="H65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L65" t="s">
         <v>35</v>
@@ -8406,7 +8409,7 @@
         <v>51</v>
       </c>
       <c r="Q65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R65" t="s">
         <v>44</v>
@@ -8415,22 +8418,22 @@
         <v>85</v>
       </c>
       <c r="T65" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W65" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X65" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA65" t="s">
         <v>51</v>
@@ -8442,21 +8445,21 @@
         <v>51</v>
       </c>
       <c r="AD65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
         <v>34</v>
@@ -8468,13 +8471,13 @@
         <v>68</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K66" t="s">
         <v>83</v>
@@ -8495,7 +8498,7 @@
         <v>51</v>
       </c>
       <c r="Q66" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R66" t="s">
         <v>44</v>
@@ -8504,22 +8507,22 @@
         <v>85</v>
       </c>
       <c r="T66" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA66" t="s">
         <v>51</v>
@@ -8531,21 +8534,21 @@
         <v>51</v>
       </c>
       <c r="AD66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
         <v>34</v>
@@ -8557,13 +8560,13 @@
         <v>36</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s">
         <v>38</v>
@@ -8584,7 +8587,7 @@
         <v>51</v>
       </c>
       <c r="Q67" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R67" t="s">
         <v>44</v>
@@ -8593,22 +8596,22 @@
         <v>85</v>
       </c>
       <c r="T67" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U67" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W67" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X67" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA67" t="s">
         <v>51</v>
@@ -8620,21 +8623,21 @@
         <v>51</v>
       </c>
       <c r="AD67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
         <v>34</v>
@@ -8673,7 +8676,7 @@
         <v>51</v>
       </c>
       <c r="Q68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R68" t="s">
         <v>44</v>
@@ -8682,22 +8685,22 @@
         <v>85</v>
       </c>
       <c r="T68" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA68" t="s">
         <v>51</v>
@@ -8709,21 +8712,21 @@
         <v>51</v>
       </c>
       <c r="AD68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s">
         <v>34</v>
@@ -8762,7 +8765,7 @@
         <v>51</v>
       </c>
       <c r="Q69" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R69" t="s">
         <v>44</v>
@@ -8771,22 +8774,22 @@
         <v>85</v>
       </c>
       <c r="T69" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W69" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X69" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA69" t="s">
         <v>51</v>
@@ -8798,21 +8801,21 @@
         <v>51</v>
       </c>
       <c r="AD69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C70" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E70" t="s">
         <v>34</v>
@@ -8824,13 +8827,13 @@
         <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I70" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J70" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K70" t="s">
         <v>38</v>
@@ -8851,7 +8854,7 @@
         <v>51</v>
       </c>
       <c r="Q70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R70" t="s">
         <v>44</v>
@@ -8860,22 +8863,22 @@
         <v>85</v>
       </c>
       <c r="T70" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X70" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA70" t="s">
         <v>51</v>
@@ -8887,18 +8890,18 @@
         <v>51</v>
       </c>
       <c r="AD70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B71" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
@@ -8913,13 +8916,13 @@
         <v>68</v>
       </c>
       <c r="H71" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K71" t="s">
         <v>39</v>
@@ -8940,7 +8943,7 @@
         <v>51</v>
       </c>
       <c r="Q71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R71" t="s">
         <v>44</v>
@@ -8949,22 +8952,22 @@
         <v>85</v>
       </c>
       <c r="T71" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA71" t="s">
         <v>51</v>
@@ -8976,21 +8979,21 @@
         <v>51</v>
       </c>
       <c r="AD71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C72" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E72" t="s">
         <v>34</v>
@@ -9029,7 +9032,7 @@
         <v>51</v>
       </c>
       <c r="Q72" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R72" t="s">
         <v>44</v>
@@ -9038,19 +9041,19 @@
         <v>85</v>
       </c>
       <c r="T72" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U72" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="V72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X72" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z72" t="s">
         <v>51</v>
@@ -9065,18 +9068,18 @@
         <v>51</v>
       </c>
       <c r="AD72" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C73" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>55</v>
@@ -9109,16 +9112,16 @@
         <v>38</v>
       </c>
       <c r="N73" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O73" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P73" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q73" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R73" t="s">
         <v>44</v>
@@ -9130,22 +9133,22 @@
         <v>46</v>
       </c>
       <c r="U73" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V73" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W73" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X73" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z73" t="s">
         <v>51</v>
       </c>
       <c r="AA73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB73" t="s">
         <v>51</v>
@@ -9154,18 +9157,18 @@
         <v>51</v>
       </c>
       <c r="AD73" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C74" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>63</v>
@@ -9198,16 +9201,16 @@
         <v>38</v>
       </c>
       <c r="N74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O74" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P74" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R74" t="s">
         <v>44</v>
@@ -9219,16 +9222,16 @@
         <v>46</v>
       </c>
       <c r="U74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V74" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W74" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X74" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z74" t="s">
         <v>51</v>
@@ -9243,18 +9246,18 @@
         <v>51</v>
       </c>
       <c r="AD74" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B75" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C75" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>33</v>
@@ -9287,16 +9290,16 @@
         <v>38</v>
       </c>
       <c r="N75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P75" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R75" t="s">
         <v>44</v>
@@ -9308,22 +9311,22 @@
         <v>46</v>
       </c>
       <c r="U75" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V75" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W75" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X75" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z75" t="s">
         <v>51</v>
       </c>
       <c r="AA75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB75" t="s">
         <v>51</v>
@@ -9332,18 +9335,18 @@
         <v>51</v>
       </c>
       <c r="AD75" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B76" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C76" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>59</v>
@@ -9376,16 +9379,16 @@
         <v>38</v>
       </c>
       <c r="N76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P76" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R76" t="s">
         <v>44</v>
@@ -9397,22 +9400,22 @@
         <v>46</v>
       </c>
       <c r="U76" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V76" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W76" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z76" t="s">
         <v>51</v>
       </c>
       <c r="AA76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB76" t="s">
         <v>51</v>
@@ -9421,18 +9424,18 @@
         <v>51</v>
       </c>
       <c r="AD76" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B77" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C77" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D77" t="s">
         <v>51</v>
@@ -9465,7 +9468,7 @@
         <v>39</v>
       </c>
       <c r="N77" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O77" t="s">
         <v>51</v>
@@ -9474,10 +9477,10 @@
         <v>51</v>
       </c>
       <c r="Q77" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R77" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S77" t="s">
         <v>51</v>
@@ -9486,16 +9489,16 @@
         <v>51</v>
       </c>
       <c r="U77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V77" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W77" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="X77" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z77" t="s">
         <v>51</v>
@@ -9504,24 +9507,24 @@
         <v>51</v>
       </c>
       <c r="AB77" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AC77" t="s">
         <v>51</v>
       </c>
       <c r="AD77" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B78" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C78" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D78" t="s">
         <v>51</v>
@@ -9554,7 +9557,7 @@
         <v>83</v>
       </c>
       <c r="N78" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O78" t="s">
         <v>51</v>
@@ -9563,10 +9566,10 @@
         <v>51</v>
       </c>
       <c r="Q78" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="R78" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S78" t="s">
         <v>45</v>
@@ -9578,13 +9581,13 @@
         <v>51</v>
       </c>
       <c r="V78" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="W78" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="X78" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z78" t="s">
         <v>51</v>
@@ -9593,24 +9596,24 @@
         <v>51</v>
       </c>
       <c r="AB78" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC78" t="s">
         <v>51</v>
       </c>
       <c r="AD78" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B79" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C79" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
         <v>51</v>
@@ -9643,7 +9646,7 @@
         <v>83</v>
       </c>
       <c r="N79" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O79" t="s">
         <v>51</v>
@@ -9652,10 +9655,10 @@
         <v>51</v>
       </c>
       <c r="Q79" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R79" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S79" t="s">
         <v>45</v>
@@ -9667,13 +9670,13 @@
         <v>51</v>
       </c>
       <c r="V79" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="W79" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="X79" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z79" t="s">
         <v>51</v>
@@ -9682,24 +9685,24 @@
         <v>51</v>
       </c>
       <c r="AB79" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AC79" t="s">
         <v>51</v>
       </c>
       <c r="AD79" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B80" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C80" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D80" t="s">
         <v>51</v>
@@ -9732,7 +9735,7 @@
         <v>83</v>
       </c>
       <c r="N80" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O80" t="s">
         <v>51</v>
@@ -9741,10 +9744,10 @@
         <v>51</v>
       </c>
       <c r="Q80" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R80" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S80" t="s">
         <v>45</v>
@@ -9756,13 +9759,13 @@
         <v>51</v>
       </c>
       <c r="V80" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W80" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="X80" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z80" t="s">
         <v>51</v>
@@ -9771,24 +9774,24 @@
         <v>51</v>
       </c>
       <c r="AB80" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AC80" t="s">
         <v>51</v>
       </c>
       <c r="AD80" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C81" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D81" t="s">
         <v>51</v>
@@ -9821,7 +9824,7 @@
         <v>83</v>
       </c>
       <c r="N81" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O81" t="s">
         <v>51</v>
@@ -9830,10 +9833,10 @@
         <v>51</v>
       </c>
       <c r="Q81" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R81" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S81" t="s">
         <v>51</v>
@@ -9845,13 +9848,13 @@
         <v>51</v>
       </c>
       <c r="V81" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W81" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="X81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z81" t="s">
         <v>51</v>
@@ -9860,24 +9863,24 @@
         <v>51</v>
       </c>
       <c r="AB81" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AC81" t="s">
         <v>51</v>
       </c>
       <c r="AD81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B82" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C82" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D82" t="s">
         <v>51</v>
@@ -9910,7 +9913,7 @@
         <v>83</v>
       </c>
       <c r="N82" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O82" t="s">
         <v>51</v>
@@ -9919,10 +9922,10 @@
         <v>51</v>
       </c>
       <c r="Q82" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R82" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S82" t="s">
         <v>45</v>
@@ -9934,13 +9937,13 @@
         <v>51</v>
       </c>
       <c r="V82" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W82" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="X82" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z82" t="s">
         <v>51</v>
@@ -9949,24 +9952,24 @@
         <v>51</v>
       </c>
       <c r="AB82" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AC82" t="s">
         <v>51</v>
       </c>
       <c r="AD82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C83" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D83" t="s">
         <v>51</v>
@@ -9999,7 +10002,7 @@
         <v>38</v>
       </c>
       <c r="N83" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O83" t="s">
         <v>51</v>
@@ -10008,10 +10011,10 @@
         <v>51</v>
       </c>
       <c r="Q83" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R83" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S83" t="s">
         <v>51</v>
@@ -10023,13 +10026,13 @@
         <v>51</v>
       </c>
       <c r="V83" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="W83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="X83" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z83" t="s">
         <v>51</v>
@@ -10041,21 +10044,21 @@
         <v>51</v>
       </c>
       <c r="AC83" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD83" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B84" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C84" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D84" t="s">
         <v>51</v>
@@ -10088,7 +10091,7 @@
         <v>38</v>
       </c>
       <c r="N84" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O84" t="s">
         <v>51</v>
@@ -10097,10 +10100,10 @@
         <v>51</v>
       </c>
       <c r="Q84" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="R84" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S84" t="s">
         <v>51</v>
@@ -10112,13 +10115,13 @@
         <v>51</v>
       </c>
       <c r="V84" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W84" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="X84" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z84" t="s">
         <v>51</v>
@@ -10127,24 +10130,24 @@
         <v>51</v>
       </c>
       <c r="AB84" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AC84" t="s">
         <v>51</v>
       </c>
       <c r="AD84" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B85" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C85" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D85" t="s">
         <v>51</v>
@@ -10177,7 +10180,7 @@
         <v>38</v>
       </c>
       <c r="N85" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O85" t="s">
         <v>51</v>
@@ -10186,10 +10189,10 @@
         <v>51</v>
       </c>
       <c r="Q85" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="R85" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S85" t="s">
         <v>51</v>
@@ -10201,13 +10204,13 @@
         <v>51</v>
       </c>
       <c r="V85" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="W85" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X85" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z85" t="s">
         <v>51</v>
@@ -10219,21 +10222,21 @@
         <v>51</v>
       </c>
       <c r="AC85" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD85" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B86" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C86" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D86" t="s">
         <v>51</v>
@@ -10266,7 +10269,7 @@
         <v>38</v>
       </c>
       <c r="N86" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O86" t="s">
         <v>51</v>
@@ -10275,10 +10278,10 @@
         <v>51</v>
       </c>
       <c r="Q86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R86" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S86" t="s">
         <v>51</v>
@@ -10290,13 +10293,13 @@
         <v>51</v>
       </c>
       <c r="V86" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="W86" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X86" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z86" t="s">
         <v>51</v>
@@ -10305,24 +10308,24 @@
         <v>51</v>
       </c>
       <c r="AB86" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AC86" t="s">
         <v>51</v>
       </c>
       <c r="AD86" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B87" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C87" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D87" t="s">
         <v>51</v>
@@ -10355,7 +10358,7 @@
         <v>38</v>
       </c>
       <c r="N87" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O87" t="s">
         <v>51</v>
@@ -10364,10 +10367,10 @@
         <v>51</v>
       </c>
       <c r="Q87" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R87" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S87" t="s">
         <v>51</v>
@@ -10379,13 +10382,13 @@
         <v>51</v>
       </c>
       <c r="V87" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W87" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X87" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z87" t="s">
         <v>51</v>
@@ -10397,21 +10400,21 @@
         <v>51</v>
       </c>
       <c r="AC87" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD87" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B88" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
         <v>51</v>
@@ -10444,7 +10447,7 @@
         <v>38</v>
       </c>
       <c r="N88" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O88" t="s">
         <v>51</v>
@@ -10453,10 +10456,10 @@
         <v>51</v>
       </c>
       <c r="Q88" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="R88" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S88" t="s">
         <v>51</v>
@@ -10468,13 +10471,13 @@
         <v>51</v>
       </c>
       <c r="V88" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="W88" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X88" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z88" t="s">
         <v>51</v>
@@ -10486,21 +10489,21 @@
         <v>51</v>
       </c>
       <c r="AC88" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD88" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B89" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C89" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D89" t="s">
         <v>51</v>
@@ -10533,7 +10536,7 @@
         <v>38</v>
       </c>
       <c r="N89" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O89" t="s">
         <v>51</v>
@@ -10542,10 +10545,10 @@
         <v>51</v>
       </c>
       <c r="Q89" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="R89" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S89" t="s">
         <v>51</v>
@@ -10557,13 +10560,13 @@
         <v>51</v>
       </c>
       <c r="V89" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="W89" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="X89" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z89" t="s">
         <v>51</v>
@@ -10575,21 +10578,21 @@
         <v>51</v>
       </c>
       <c r="AC89" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD89" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B90" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C90" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D90" t="s">
         <v>51</v>
@@ -10622,7 +10625,7 @@
         <v>38</v>
       </c>
       <c r="N90" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O90" t="s">
         <v>51</v>
@@ -10631,10 +10634,10 @@
         <v>51</v>
       </c>
       <c r="Q90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="R90" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S90" t="s">
         <v>51</v>
@@ -10646,13 +10649,13 @@
         <v>51</v>
       </c>
       <c r="V90" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="W90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="X90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z90" t="s">
         <v>51</v>
@@ -10661,24 +10664,24 @@
         <v>51</v>
       </c>
       <c r="AB90" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AC90" t="s">
         <v>51</v>
       </c>
       <c r="AD90" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B91" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C91" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D91" t="s">
         <v>51</v>
@@ -10711,7 +10714,7 @@
         <v>38</v>
       </c>
       <c r="N91" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O91" t="s">
         <v>51</v>
@@ -10720,10 +10723,10 @@
         <v>51</v>
       </c>
       <c r="Q91" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="R91" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S91" t="s">
         <v>51</v>
@@ -10735,13 +10738,13 @@
         <v>51</v>
       </c>
       <c r="V91" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="W91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z91" t="s">
         <v>51</v>
@@ -10750,24 +10753,24 @@
         <v>51</v>
       </c>
       <c r="AB91" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AC91" t="s">
         <v>51</v>
       </c>
       <c r="AD91" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B92" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C92" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D92" t="s">
         <v>51</v>
@@ -10800,7 +10803,7 @@
         <v>38</v>
       </c>
       <c r="N92" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O92" t="s">
         <v>51</v>
@@ -10809,10 +10812,10 @@
         <v>51</v>
       </c>
       <c r="Q92" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="R92" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S92" t="s">
         <v>51</v>
@@ -10824,13 +10827,13 @@
         <v>51</v>
       </c>
       <c r="V92" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="W92" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X92" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z92" t="s">
         <v>51</v>
@@ -10839,24 +10842,24 @@
         <v>51</v>
       </c>
       <c r="AB92" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AC92" t="s">
         <v>51</v>
       </c>
       <c r="AD92" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C93" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D93" t="s">
         <v>51</v>
@@ -10889,7 +10892,7 @@
         <v>38</v>
       </c>
       <c r="N93" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O93" t="s">
         <v>51</v>
@@ -10898,10 +10901,10 @@
         <v>51</v>
       </c>
       <c r="Q93" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R93" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S93" t="s">
         <v>51</v>
@@ -10913,13 +10916,13 @@
         <v>51</v>
       </c>
       <c r="V93" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="W93" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X93" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z93" t="s">
         <v>51</v>
@@ -10931,21 +10934,21 @@
         <v>51</v>
       </c>
       <c r="AC93" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD93" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B94" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C94" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D94" t="s">
         <v>51</v>
@@ -10978,7 +10981,7 @@
         <v>38</v>
       </c>
       <c r="N94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O94" t="s">
         <v>51</v>
@@ -10987,10 +10990,10 @@
         <v>51</v>
       </c>
       <c r="Q94" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="R94" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S94" t="s">
         <v>51</v>
@@ -11002,13 +11005,13 @@
         <v>51</v>
       </c>
       <c r="V94" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="W94" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X94" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z94" t="s">
         <v>51</v>
@@ -11020,21 +11023,21 @@
         <v>51</v>
       </c>
       <c r="AC94" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD94" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C95" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D95" t="s">
         <v>51</v>
@@ -11067,7 +11070,7 @@
         <v>38</v>
       </c>
       <c r="N95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O95" t="s">
         <v>51</v>
@@ -11076,10 +11079,10 @@
         <v>51</v>
       </c>
       <c r="Q95" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="R95" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S95" t="s">
         <v>45</v>
@@ -11091,13 +11094,13 @@
         <v>51</v>
       </c>
       <c r="V95" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="W95" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="X95" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z95" t="s">
         <v>51</v>
@@ -11106,13 +11109,13 @@
         <v>51</v>
       </c>
       <c r="AB95" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AC95" t="s">
         <v>51</v>
       </c>
       <c r="AD95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
